--- a/import_process/template/template_cust_data.xlsx
+++ b/import_process/template/template_cust_data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mydev\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\website\sac_data2\import_process\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B0418AA7-BC60-41B1-95F7-A80B9FE10BE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{774A934F-F317-4EBB-AFE6-8581AD70C0E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{39F0E444-2B6E-4AC7-9865-C785F5244817}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
   <si>
     <t>AR_CODE</t>
   </si>
@@ -69,6 +69,15 @@
   </si>
   <si>
     <t>ภกายดาว (ปู)</t>
+  </si>
+  <si>
+    <t>TRD_AMPHUR</t>
+  </si>
+  <si>
+    <t>TRD_PROVINCE</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
@@ -441,10 +450,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0155760-5BEA-4A96-B1DB-79717FD694B7}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -453,9 +462,11 @@
     <col min="2" max="2" width="27.75" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.75" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.625" customWidth="1"/>
+    <col min="6" max="6" width="15.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -468,8 +479,14 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -482,8 +499,14 @@
       <c r="D2" t="s">
         <v>7</v>
       </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -495,9 +518,16 @@
       </c>
       <c r="D3" t="s">
         <v>10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>